--- a/2022/Symphony/Others/Document/Final/Mugdho Corporation Expence Top Sheet.xlsx
+++ b/2022/Symphony/Others/Document/Final/Mugdho Corporation Expence Top Sheet.xlsx
@@ -33,36 +33,6 @@
     <t>2020-2021 Expence Sheet</t>
   </si>
   <si>
-    <t>July_2020</t>
-  </si>
-  <si>
-    <t>August_2020</t>
-  </si>
-  <si>
-    <t>September_2020</t>
-  </si>
-  <si>
-    <t>October_2020</t>
-  </si>
-  <si>
-    <t>November_2020</t>
-  </si>
-  <si>
-    <t>December_2020</t>
-  </si>
-  <si>
-    <t>January_2021</t>
-  </si>
-  <si>
-    <t>February_2021</t>
-  </si>
-  <si>
-    <t>March_2021</t>
-  </si>
-  <si>
-    <t>April_2021</t>
-  </si>
-  <si>
     <t xml:space="preserve">Salary </t>
   </si>
   <si>
@@ -72,13 +42,43 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>May_2021</t>
-  </si>
-  <si>
-    <t>June_2021</t>
-  </si>
-  <si>
     <t>Distributior: Symphony Mobile(Edison Group)</t>
+  </si>
+  <si>
+    <t>July_2021</t>
+  </si>
+  <si>
+    <t>August_2021</t>
+  </si>
+  <si>
+    <t>September_2021</t>
+  </si>
+  <si>
+    <t>October_2021</t>
+  </si>
+  <si>
+    <t>November_2021</t>
+  </si>
+  <si>
+    <t>December_2021</t>
+  </si>
+  <si>
+    <t>January_2022</t>
+  </si>
+  <si>
+    <t>February_2022</t>
+  </si>
+  <si>
+    <t>March_2022</t>
+  </si>
+  <si>
+    <t>April_2022</t>
+  </si>
+  <si>
+    <t>May_2022</t>
+  </si>
+  <si>
+    <t>June_2022</t>
   </si>
 </sst>
 </file>
@@ -207,23 +207,23 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,37 +546,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:11" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="A2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -586,13 +586,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" s="13">
         <v>71450</v>
@@ -618,7 +618,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6" s="13">
         <v>48700</v>
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" s="13">
         <v>80700</v>
@@ -654,7 +654,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C8" s="13">
         <v>80700</v>
@@ -672,7 +672,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9" s="13">
         <v>80700</v>
@@ -690,7 +690,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C10" s="13">
         <v>80700</v>
@@ -708,7 +708,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C11" s="13">
         <v>70600</v>
@@ -726,7 +726,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C12" s="13">
         <v>75600</v>
@@ -744,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13">
         <v>75600</v>
@@ -762,7 +762,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C14" s="13">
         <v>75100</v>
@@ -780,7 +780,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="8">
         <v>112800</v>
@@ -798,7 +798,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="13">
         <v>75300</v>
@@ -812,11 +812,11 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="17">
+      <c r="B17" s="16"/>
+      <c r="C17" s="14">
         <f>SUM(C5:C16)</f>
         <v>927950</v>
       </c>
